--- a/Recipt/fitness.xlsx
+++ b/Recipt/fitness.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\process mining\pm4py\Recipt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920CA46-2E68-4E1F-A83E-00C37B5AFCD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6CA361-A1A4-4ED2-A822-1386972C7051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07B94767-5DC1-4B3B-9FBC-0F9B4C71E218}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>cluster 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,22 @@
   </si>
   <si>
     <t>running time(seconds)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-based precision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -449,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72D3A8B-AC97-456B-8DE4-BA101B779A00}">
-  <dimension ref="B6:I24"/>
+  <dimension ref="B6:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -461,7 +477,7 @@
     <col min="6" max="7" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>1</v>
       </c>
@@ -471,8 +487,17 @@
       <c r="I6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -491,8 +516,18 @@
       <c r="I7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0.375</v>
+      </c>
+      <c r="N7">
+        <f>L7*2</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -505,8 +540,18 @@
       <c r="I8">
         <v>657</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N24" si="0">L8*2</f>
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="Q8">
+        <v>0.89680000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -522,8 +567,18 @@
       <c r="I9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0.375</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q9">
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>5</v>
       </c>
@@ -536,8 +591,18 @@
       <c r="I10">
         <v>215</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>0.38090000000000002</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="Q10">
+        <v>0.78249999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>8</v>
       </c>
@@ -550,8 +615,18 @@
       <c r="I11">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="Q11">
+        <v>0.90037</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -567,8 +642,18 @@
       <c r="I12">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0.3125</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="Q12">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>4</v>
       </c>
@@ -581,8 +666,18 @@
       <c r="I13">
         <v>518</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="Q13">
+        <v>0.89890000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>7</v>
       </c>
@@ -595,8 +690,18 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>10</v>
       </c>
@@ -606,8 +711,14 @@
       <c r="G15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -626,8 +737,18 @@
       <c r="I16">
         <v>893</v>
       </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0.47720000000000001</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="Q16">
+        <v>0.87439999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>5</v>
       </c>
@@ -640,8 +761,18 @@
       <c r="I17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="Q17">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -657,8 +788,18 @@
       <c r="I18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.93332999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>5</v>
       </c>
@@ -671,8 +812,18 @@
       <c r="I19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>0.2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q19">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>8</v>
       </c>
@@ -685,8 +836,18 @@
       <c r="I20">
         <v>921</v>
       </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>0.47720000000000001</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="Q20">
+        <v>0.87509999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -702,8 +863,18 @@
       <c r="I21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>0.26919999999999999</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="Q21">
+        <v>0.94710000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>4</v>
       </c>
@@ -716,8 +887,18 @@
       <c r="I22">
         <v>913</v>
       </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>0.47720000000000001</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="Q22">
+        <v>0.87560000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>7</v>
       </c>
@@ -730,8 +911,18 @@
       <c r="I23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0.2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q23">
+        <v>0.9294</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>10</v>
       </c>
@@ -743,6 +934,16 @@
       </c>
       <c r="I24">
         <v>10</v>
+      </c>
+      <c r="L24">
+        <v>0.2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q24">
+        <v>0.98699999999999999</v>
       </c>
     </row>
   </sheetData>
